--- a/Output/Cali/Output_by_mode/Summary.xlsx
+++ b/Output/Cali/Output_by_mode/Summary.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="11_8687DFCC8F79A8D366075C52F37BD272EA40F122" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FEFA42F-CCE7-48C5-A0AB-7FC45752FD00}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1034,6 +1034,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1326,7 +1330,7 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
